--- a/단기프로젝트(S-PPSS)/문서/데이터베이스 정리1.xlsx
+++ b/단기프로젝트(S-PPSS)/문서/데이터베이스 정리1.xlsx
@@ -912,7 +912,7 @@
   <dimension ref="B2:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/단기프로젝트(S-PPSS)/문서/데이터베이스 정리1.xlsx
+++ b/단기프로젝트(S-PPSS)/문서/데이터베이스 정리1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
   <si>
     <t>pk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -362,6 +362,18 @@
   </si>
   <si>
     <t>user_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임금(연,월,일,시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,9 +381,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="000000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,7 +630,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -909,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L52"/>
+  <dimension ref="B2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,20 +932,18 @@
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="39" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="39" x14ac:dyDescent="0.3">
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="16" t="s">
         <v>7</v>
@@ -946,7 +953,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="18" t="s">
         <v>30</v>
@@ -965,7 +972,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="13" t="s">
         <v>1</v>
@@ -984,7 +991,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="13" t="s">
         <v>2</v>
@@ -999,7 +1006,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="13" t="s">
         <v>3</v>
@@ -1014,7 +1021,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="13" t="s">
         <v>78</v>
@@ -1029,7 +1036,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="13" t="s">
         <v>84</v>
@@ -1044,7 +1051,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="13" t="s">
         <v>82</v>
@@ -1059,7 +1066,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="13" t="s">
         <v>83</v>
@@ -1074,7 +1081,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
         <v>80</v>
@@ -1088,9 +1095,8 @@
       <c r="F13" s="11"/>
       <c r="G13" s="6"/>
       <c r="H13" s="3"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="13" t="s">
         <v>81</v>
@@ -1105,7 +1111,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
         <v>4</v>
@@ -1120,7 +1126,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
         <v>5</v>
       </c>
@@ -1387,61 +1393,61 @@
       </c>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="12" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E35" s="11">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="6" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E36" s="11">
-        <v>65535</v>
+        <v>20</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E37" s="11">
-        <v>50</v>
+        <v>65535</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>52</v>
@@ -1451,14 +1457,14 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>52</v>
@@ -1468,14 +1474,14 @@
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>52</v>
@@ -1485,14 +1491,14 @@
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>52</v>
@@ -1502,14 +1508,14 @@
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>52</v>
@@ -1519,72 +1525,74 @@
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="11">
+        <v>50</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="15" t="s">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="17" t="s">
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="18" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E47" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G47" s="18" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C48" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="11">
-        <v>30</v>
-      </c>
-      <c r="F48" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="G48" s="6" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>57</v>
@@ -1594,12 +1602,12 @@
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C50" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>57</v>
@@ -1609,26 +1617,41 @@
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C51" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E51" s="11">
         <v>30</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="11">
+        <v>30</v>
+      </c>
+      <c r="F52" s="11"/>
+      <c r="G52" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="15" t="s">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="15" t="s">
         <v>59</v>
       </c>
     </row>

--- a/단기프로젝트(S-PPSS)/문서/데이터베이스 정리1.xlsx
+++ b/단기프로젝트(S-PPSS)/문서/데이터베이스 정리1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <t>pk</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,14 @@
   </si>
   <si>
     <t>임금(연,월,일,시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H53"/>
+  <dimension ref="B2:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,15 +943,15 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="39" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="39" x14ac:dyDescent="0.3">
       <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="16" t="s">
         <v>7</v>
@@ -953,7 +961,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="18" t="s">
         <v>30</v>
@@ -972,7 +980,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="13" t="s">
         <v>1</v>
@@ -991,7 +999,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="13" t="s">
         <v>2</v>
@@ -1006,7 +1014,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="13" t="s">
         <v>3</v>
@@ -1021,7 +1029,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="13" t="s">
         <v>78</v>
@@ -1036,7 +1044,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="13" t="s">
         <v>84</v>
@@ -1051,7 +1059,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="13" t="s">
         <v>82</v>
@@ -1066,7 +1074,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="13" t="s">
         <v>83</v>
@@ -1081,7 +1089,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="13" t="s">
         <v>80</v>
@@ -1096,7 +1104,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="13" t="s">
         <v>81</v>
@@ -1111,7 +1119,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="13" t="s">
         <v>4</v>
@@ -1125,8 +1133,11 @@
       <c r="F15" s="11"/>
       <c r="G15" s="6"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
         <v>5</v>
       </c>
@@ -1135,7 +1146,12 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="S17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="16" t="s">
         <v>24</v>
@@ -1145,7 +1161,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="18" t="s">
         <v>30</v>
@@ -1164,7 +1180,7 @@
       </c>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="12" t="s">
         <v>0</v>
@@ -1183,7 +1199,7 @@
       </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="12" t="s">
         <v>19</v>
@@ -1200,7 +1216,7 @@
       </c>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="12" t="s">
         <v>20</v>
@@ -1217,7 +1233,7 @@
       </c>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="12" t="s">
         <v>45</v>
@@ -1234,7 +1250,7 @@
       </c>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="12" t="s">
         <v>21</v>
@@ -1251,7 +1267,7 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="12" t="s">
         <v>22</v>
@@ -1268,7 +1284,7 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="12" t="s">
         <v>23</v>
@@ -1285,7 +1301,7 @@
       </c>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
         <v>32</v>
       </c>
@@ -1294,7 +1310,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="16" t="s">
         <v>6</v>
@@ -1304,7 +1320,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="18" t="s">
         <v>30</v>
@@ -1323,7 +1339,7 @@
       </c>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="12" t="s">
         <v>8</v>
@@ -1342,7 +1358,7 @@
       </c>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="12" t="s">
         <v>74</v>
